--- a/Assets/Tables/skill.xlsx
+++ b/Assets/Tables/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\Doom\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93B0DA5-C7DB-45EE-B839-8CB5EEE3223D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB424EC-2D24-4F1A-AE8F-5EE698FA2187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="3120" windowWidth="27090" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="3150" windowWidth="27090" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>初始化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>dict&lt;int, string&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -59,6 +55,18 @@
   </si>
   <si>
     <t>0=load(a); 1=load(b); 4=load(xxx);</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=load(h);</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast_funcs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=cast_nova();</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -449,67 +457,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="70.875" customWidth="1"/>
+    <col min="2" max="3" width="70.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>199000001</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>199000002</v>
       </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>199000003</v>
       </c>
       <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>199000004</v>
       </c>
       <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Assets/Tables/skill.xlsx
+++ b/Assets/Tables/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\Doom\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB424EC-2D24-4F1A-AE8F-5EE698FA2187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E797B820-AE3B-4901-8157-C8216C24AB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1110" yWindow="3150" windowWidth="27090" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,31 +155,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -460,13 +466,14 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="3" width="70.875" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="5" customWidth="1"/>
+    <col min="2" max="3" width="70.875" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -491,46 +498,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>199000001</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>199000002</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>199000003</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>199000004</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Assets/Tables/skill.xlsx
+++ b/Assets/Tables/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\Doom\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E797B820-AE3B-4901-8157-C8216C24AB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D328AF-C42A-4AC6-ACF6-F976AB1BBD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1110" yWindow="3150" windowWidth="27090" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0=cast_nova();</t>
+    <t>0=cast_nova()&amp;&amp;cast_twine();</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +466,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/Tables/skill.xlsx
+++ b/Assets/Tables/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\Doom\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D328AF-C42A-4AC6-ACF6-F976AB1BBD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE77B510-DD28-42A3-877E-DEDE309BCF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1110" yWindow="3150" windowWidth="27090" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0=cast_nova()&amp;&amp;cast_twine();</t>
+    <t>0=cast_nova(); 1=cast_nova()&amp;&amp;cast_twine();</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>

--- a/Assets/Tables/skill.xlsx
+++ b/Assets/Tables/skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\Doom\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doom\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE77B510-DD28-42A3-877E-DEDE309BCF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4694F09-3865-4467-875C-C764BEF220BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="3150" windowWidth="27090" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -54,19 +54,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0=load(a); 1=load(b); 4=load(xxx);</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0=load(h);</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>cast_funcs</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0=cast_nova(); 1=cast_nova()&amp;&amp;cast_twine();</t>
+    <t>0=cast_nova();</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=load(0,神识锁定,); 1=load(1,冥想,);</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -465,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -484,7 +480,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -510,19 +506,17 @@
         <v>199000001</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>199000002</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">

--- a/Assets/Tables/skill.xlsx
+++ b/Assets/Tables/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doom\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4694F09-3865-4467-875C-C764BEF220BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D49D81-B0C3-424C-8C13-03666C615B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0=load(0,神识锁定,); 1=load(1,冥想,);</t>
+    <t>0=load(0,凝神,);   1=load(1,聚气,);   2=load(1,会心,);   3=load(1,疗伤,);   4=load(1,驱毒,);   5=load(1,易卦,);</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -462,13 +462,14 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="5" customWidth="1"/>
-    <col min="2" max="3" width="70.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="86" style="10" customWidth="1"/>
+    <col min="3" max="3" width="70.875" style="10" customWidth="1"/>
     <col min="4" max="16384" width="9.125" style="10"/>
   </cols>
   <sheetData>

--- a/Assets/Tables/skill.xlsx
+++ b/Assets/Tables/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doom\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D49D81-B0C3-424C-8C13-03666C615B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649A4280-AAC1-4C7A-9FFF-5A8370F991A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Assets/Tables/skill.xlsx
+++ b/Assets/Tables/skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doom\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\Doom\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649A4280-AAC1-4C7A-9FFF-5A8370F991A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA01E5A-A5AA-429B-A5BB-39A2B3283F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="4020" windowWidth="27090" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0=load(0,凝神,);   1=load(1,聚气,);   2=load(1,会心,);   3=load(1,疗伤,);   4=load(1,驱毒,);   5=load(1,易卦,);</t>
+    <t>0=load(0,凝神,);   1=load(1,聚气,);   2=load(1,会心,);   3=load(1,疗伤,);   4=load(1,驱毒,);   5=load(1,传音,);</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>

--- a/Assets/Tables/skill.xlsx
+++ b/Assets/Tables/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\Doom\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA01E5A-A5AA-429B-A5BB-39A2B3283F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04C8925-F3F3-425D-BBCE-2F9D1F7FDE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="4020" windowWidth="27090" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="27090" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="2" r:id="rId1"/>
@@ -459,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -520,20 +520,6 @@
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>199000003</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>199000004</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assets/Tables/skill.xlsx
+++ b/Assets/Tables/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\Doom\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04C8925-F3F3-425D-BBCE-2F9D1F7FDE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92468C0-A282-47EE-A422-57305CACB447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="27090" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -58,11 +58,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0=cast_nova();</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0=load(0,凝神,);   1=load(1,聚气,);   2=load(1,会心,);   3=load(1,疗伤,);   4=load(1,驱毒,);   5=load(1,传音,);</t>
+    <t>0=load(0,打坐,);</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=cast_sit();</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=cast_pickup();  1=cast_push();</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=load(0,拾取,);   1=load(1,推,);</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -461,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -507,18 +515,22 @@
         <v>199000001</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>199000002</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
